--- a/doc/01.design/rental_app_基本設計書.xlsx
+++ b/doc/01.design/rental_app_基本設計書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/893fb332e7443130/デスクトップ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/Eclipse_2022-12.app/Contents/workspace/Rental-app/doc/01.design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="13_ncr:1_{918B09A6-7A87-A84F-A0F9-FD175DE58235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98C49577-171C-4729-BB80-874455D6779E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0CC98B7-2A27-DD4A-81DD-DF4AE24386AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2F0FFA90-C190-0E43-BE11-0EF90B74854A}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{2F0FFA90-C190-0E43-BE11-0EF90B74854A}"/>
   </bookViews>
   <sheets>
     <sheet name="画面一覧" sheetId="2" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="176">
   <si>
     <t>権限があるスタッフのみ遷移可能</t>
     <rPh sb="0" eb="2">
@@ -429,17 +429,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Vueにはさまざまなライブラリが存在する</t>
-    <rPh sb="16" eb="18">
-      <t xml:space="preserve">ソンザイ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>VeeValidate（Vue.js用のリアルタイムバリデーションコンポーネントライブラリ）など、、</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>このアプリを作成しようと思った理由</t>
     <rPh sb="6" eb="8">
       <t xml:space="preserve">サクセイ </t>
@@ -469,38 +458,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Vueの入門以外の機能について</t>
-    <rPh sb="4" eb="6">
-      <t xml:space="preserve">ニュウモン </t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t xml:space="preserve">イガイ </t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t xml:space="preserve">キノウ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>対応しなかった理由：自分の苦手はフロントエンドよりバックエンドにあると思った。</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">タイオウ </t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t xml:space="preserve">リユウ </t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t xml:space="preserve">ジブンノ </t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t xml:space="preserve">ニガテハ </t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t xml:space="preserve">オモッタ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>目標は画面からの操作でAPIを呼び、Spring〜SQLの流れの基礎をマスターすること。</t>
     <rPh sb="0" eb="2">
       <t xml:space="preserve">モクヒョウ </t>
@@ -574,25 +531,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>　　　　　　　　　　時間がなかったというのもそうだが、バックエンド側の勉強の割合を増やしたかった。</t>
-    <rPh sb="10" eb="12">
-      <t xml:space="preserve">ジカン </t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t xml:space="preserve">ガワ </t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t xml:space="preserve">ベンキョウノ </t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t xml:space="preserve">ワリアイ </t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t xml:space="preserve">フヤシタカッタ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Dockerについて</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -661,31 +599,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>クイズアプリやブログ機能がよくある勉強法らしいが、ちょっとした条件をつけたりテーブルを結合してみたりなどのプラスアルファな実装イメージが湧かなかった。。</t>
-    <rPh sb="10" eb="12">
-      <t xml:space="preserve">キノウ </t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t xml:space="preserve">ベンキョウ </t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t xml:space="preserve">ホウ </t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t xml:space="preserve">ジョウケン </t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t xml:space="preserve">ケツゴウ </t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t xml:space="preserve">ジッソウ </t>
-    </rPh>
-    <rPh sb="68" eb="69">
-      <t xml:space="preserve">ワカナカッタ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ユーザー情報更新</t>
     <rPh sb="4" eb="6">
       <t xml:space="preserve">ジョウホウ </t>
@@ -1469,13 +1382,75 @@
   </si>
   <si>
     <t>INTEGER</t>
+  </si>
+  <si>
+    <t>author</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>著者</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">チョシャ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他自動生成全般（MyBatis generatorなど）</t>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">ジドウ </t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">セイセイ </t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t xml:space="preserve">ゼンパン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基礎から勉強したいため。</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">キソカラ </t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">ベンキョウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>黄色いところ今度直す。</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">キイロ </t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t xml:space="preserve">コンド </t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t xml:space="preserve">ナオス </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>publisher</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出版社</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">シュッパンシャ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>book_name</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1500,8 +1475,26 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1517,6 +1510,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1806,7 +1805,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1942,8 +1941,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3066,7 +3080,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3076,21 +3090,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28FA5B3F-3ECA-B543-B86D-ACACD67EBCBD}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.6640625" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="4.7109375" defaultRowHeight="20"/>
   <cols>
-    <col min="3" max="3" width="8.33203125" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" customWidth="1"/>
-    <col min="5" max="5" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="25.5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="27">
       <c r="A1" s="27" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5">
       <c r="B3" s="26" t="s">
         <v>1</v>
       </c>
@@ -3104,7 +3120,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5">
       <c r="B4" s="25">
         <v>1</v>
       </c>
@@ -3116,7 +3132,7 @@
       </c>
       <c r="E4" s="25"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5">
       <c r="B5" s="25">
         <v>2</v>
       </c>
@@ -3128,7 +3144,7 @@
       </c>
       <c r="E5" s="25"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5">
       <c r="B6" s="25">
         <v>3</v>
       </c>
@@ -3140,7 +3156,7 @@
       </c>
       <c r="E6" s="25"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5">
       <c r="B7" s="25">
         <v>4</v>
       </c>
@@ -3152,7 +3168,7 @@
       </c>
       <c r="E7" s="25"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5">
       <c r="B8" s="25">
         <v>5</v>
       </c>
@@ -3164,7 +3180,7 @@
       </c>
       <c r="E8" s="25"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5">
       <c r="B9" s="25">
         <v>6</v>
       </c>
@@ -3176,7 +3192,7 @@
       </c>
       <c r="E9" s="25"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5">
       <c r="B10" s="25">
         <v>7</v>
       </c>
@@ -3188,7 +3204,7 @@
       </c>
       <c r="E10" s="25"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5">
       <c r="B11" s="25">
         <v>8</v>
       </c>
@@ -3200,7 +3216,7 @@
       </c>
       <c r="E11" s="25"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5">
       <c r="B12" s="25">
         <v>9</v>
       </c>
@@ -3212,7 +3228,7 @@
       </c>
       <c r="E12" s="25"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5">
       <c r="B13" s="25">
         <v>10</v>
       </c>
@@ -3226,7 +3242,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5">
       <c r="B14" s="25">
         <v>11</v>
       </c>
@@ -3240,7 +3256,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5">
       <c r="B15" s="25">
         <v>12</v>
       </c>
@@ -3266,25 +3282,25 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="5" defaultRowHeight="20"/>
   <cols>
     <col min="6" max="6" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="25.5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:23" ht="27">
       <c r="A1" s="27" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:23">
       <c r="D8" s="1"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:23">
       <c r="D9" s="1"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:23">
       <c r="D10" s="1"/>
       <c r="E10" s="2"/>
       <c r="L10" s="5"/>
@@ -3300,67 +3316,67 @@
       <c r="V10" s="4"/>
       <c r="W10" s="6"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:23">
       <c r="D11" s="1"/>
       <c r="E11" s="2"/>
       <c r="L11" s="2"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:23">
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:23">
       <c r="G14" s="4"/>
       <c r="H14" s="5"/>
       <c r="N14" s="4"/>
       <c r="O14" s="5"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:23">
       <c r="H15" s="2"/>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:23">
       <c r="H16" s="2"/>
       <c r="O16" s="2"/>
     </row>
-    <row r="17" spans="8:23" x14ac:dyDescent="0.4">
+    <row r="17" spans="8:23">
       <c r="H17" s="2"/>
       <c r="O17" s="2"/>
     </row>
-    <row r="18" spans="8:23" x14ac:dyDescent="0.4">
+    <row r="18" spans="8:23">
       <c r="H18" s="2"/>
       <c r="O18" s="2"/>
     </row>
-    <row r="19" spans="8:23" x14ac:dyDescent="0.4">
+    <row r="19" spans="8:23">
       <c r="H19" s="2"/>
       <c r="O19" s="2"/>
     </row>
-    <row r="20" spans="8:23" x14ac:dyDescent="0.4">
+    <row r="20" spans="8:23">
       <c r="H20" s="2"/>
       <c r="O20" s="2"/>
     </row>
-    <row r="21" spans="8:23" x14ac:dyDescent="0.4">
+    <row r="21" spans="8:23">
       <c r="H21" s="2"/>
       <c r="O21" s="7"/>
     </row>
-    <row r="22" spans="8:23" x14ac:dyDescent="0.4">
+    <row r="22" spans="8:23">
       <c r="H22" s="2"/>
       <c r="O22" s="4"/>
     </row>
-    <row r="23" spans="8:23" x14ac:dyDescent="0.4">
+    <row r="23" spans="8:23">
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="8:23" x14ac:dyDescent="0.4">
+    <row r="24" spans="8:23">
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="8:23" x14ac:dyDescent="0.4">
+    <row r="25" spans="8:23">
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="8:23" x14ac:dyDescent="0.4">
+    <row r="26" spans="8:23">
       <c r="H26" s="2"/>
       <c r="L26" s="5"/>
       <c r="M26" s="4"/>
@@ -3375,36 +3391,36 @@
       <c r="V26" s="4"/>
       <c r="W26" s="6"/>
     </row>
-    <row r="27" spans="8:23" x14ac:dyDescent="0.4">
+    <row r="27" spans="8:23">
       <c r="H27" s="2"/>
       <c r="L27" s="2"/>
       <c r="W27" s="1"/>
     </row>
-    <row r="28" spans="8:23" x14ac:dyDescent="0.4">
+    <row r="28" spans="8:23">
       <c r="H28" s="2"/>
     </row>
-    <row r="29" spans="8:23" x14ac:dyDescent="0.4">
+    <row r="29" spans="8:23">
       <c r="H29" s="7"/>
       <c r="I29" s="3"/>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="8:23" x14ac:dyDescent="0.4">
+    <row r="30" spans="8:23">
       <c r="H30" s="5"/>
       <c r="I30" s="4"/>
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
     </row>
-    <row r="31" spans="8:23" x14ac:dyDescent="0.4">
+    <row r="31" spans="8:23">
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="8:23" x14ac:dyDescent="0.4">
+    <row r="32" spans="8:23">
       <c r="H32" s="2"/>
     </row>
-    <row r="33" spans="8:26" x14ac:dyDescent="0.4">
+    <row r="33" spans="8:26">
       <c r="H33" s="2"/>
     </row>
-    <row r="34" spans="8:26" x14ac:dyDescent="0.4">
+    <row r="34" spans="8:26">
       <c r="H34" s="2"/>
       <c r="I34" s="8" t="s">
         <v>0</v>
@@ -3427,7 +3443,7 @@
       <c r="Y34" s="9"/>
       <c r="Z34" s="10"/>
     </row>
-    <row r="35" spans="8:26" x14ac:dyDescent="0.4">
+    <row r="35" spans="8:26">
       <c r="H35" s="2"/>
       <c r="I35" s="11"/>
       <c r="J35" s="12"/>
@@ -3448,7 +3464,7 @@
       <c r="Y35" s="12"/>
       <c r="Z35" s="13"/>
     </row>
-    <row r="36" spans="8:26" x14ac:dyDescent="0.4">
+    <row r="36" spans="8:26">
       <c r="H36" s="2"/>
       <c r="I36" s="11"/>
       <c r="J36" s="12"/>
@@ -3469,7 +3485,7 @@
       <c r="Y36" s="12"/>
       <c r="Z36" s="13"/>
     </row>
-    <row r="37" spans="8:26" x14ac:dyDescent="0.4">
+    <row r="37" spans="8:26">
       <c r="H37" s="2"/>
       <c r="I37" s="11"/>
       <c r="J37" s="12"/>
@@ -3490,7 +3506,7 @@
       <c r="Y37" s="12"/>
       <c r="Z37" s="13"/>
     </row>
-    <row r="38" spans="8:26" x14ac:dyDescent="0.4">
+    <row r="38" spans="8:26">
       <c r="H38" s="2"/>
       <c r="I38" s="11"/>
       <c r="J38" s="12"/>
@@ -3511,7 +3527,7 @@
       <c r="Y38" s="12"/>
       <c r="Z38" s="13"/>
     </row>
-    <row r="39" spans="8:26" x14ac:dyDescent="0.4">
+    <row r="39" spans="8:26">
       <c r="H39" s="7"/>
       <c r="I39" s="19"/>
       <c r="J39" s="12"/>
@@ -3532,7 +3548,7 @@
       <c r="Y39" s="12"/>
       <c r="Z39" s="13"/>
     </row>
-    <row r="40" spans="8:26" x14ac:dyDescent="0.4">
+    <row r="40" spans="8:26">
       <c r="H40" s="4"/>
       <c r="I40" s="21"/>
       <c r="J40" s="12"/>
@@ -3553,7 +3569,7 @@
       <c r="Y40" s="12"/>
       <c r="Z40" s="13"/>
     </row>
-    <row r="41" spans="8:26" x14ac:dyDescent="0.4">
+    <row r="41" spans="8:26">
       <c r="I41" s="11"/>
       <c r="J41" s="12"/>
       <c r="K41" s="12"/>
@@ -3573,7 +3589,7 @@
       <c r="Y41" s="12"/>
       <c r="Z41" s="13"/>
     </row>
-    <row r="42" spans="8:26" x14ac:dyDescent="0.4">
+    <row r="42" spans="8:26">
       <c r="I42" s="22"/>
       <c r="J42" s="23"/>
       <c r="K42" s="23"/>
@@ -3604,24 +3620,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCF1F92A-F22A-3142-B5CA-5A06852BC82D}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.109375" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="6.140625" defaultRowHeight="20"/>
   <cols>
-    <col min="3" max="3" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
     <col min="8" max="8" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="25.5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="27">
       <c r="A1" s="27" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8">
       <c r="B3" s="30" t="s">
         <v>1</v>
       </c>
@@ -3640,7 +3658,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8">
       <c r="B4" s="31"/>
       <c r="C4" s="26" t="s">
         <v>2</v>
@@ -3653,7 +3671,7 @@
       <c r="G4" s="31"/>
       <c r="H4" s="31"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8">
       <c r="B5" s="25">
         <v>1</v>
       </c>
@@ -3674,7 +3692,7 @@
       </c>
       <c r="H5" s="25"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8">
       <c r="B6" s="25">
         <v>2</v>
       </c>
@@ -3695,7 +3713,7 @@
       </c>
       <c r="H6" s="25"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8">
       <c r="B7" s="36">
         <v>3</v>
       </c>
@@ -3712,28 +3730,28 @@
         <v>41</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="H7" s="25"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8">
       <c r="B8" s="29"/>
       <c r="C8" s="29"/>
       <c r="D8" s="29"/>
       <c r="E8" s="25" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F8" s="25" t="s">
         <v>42</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="B9" s="36">
         <v>4</v>
       </c>
@@ -3750,11 +3768,11 @@
         <v>44</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="H9" s="25"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8">
       <c r="B10" s="37"/>
       <c r="C10" s="37"/>
       <c r="D10" s="37"/>
@@ -3767,7 +3785,7 @@
       </c>
       <c r="H10" s="25"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8">
       <c r="B11" s="37"/>
       <c r="C11" s="37"/>
       <c r="D11" s="37"/>
@@ -3775,27 +3793,27 @@
         <v>45</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="H11" s="25"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8">
       <c r="B12" s="29"/>
       <c r="C12" s="29"/>
       <c r="D12" s="29"/>
       <c r="E12" s="29"/>
       <c r="F12" s="25" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="H12" s="25"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8">
       <c r="B13" s="25">
         <v>5</v>
       </c>
@@ -3806,17 +3824,17 @@
         <v>21</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="H13" s="25"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8">
       <c r="B14" s="36">
         <v>6</v>
       </c>
@@ -3830,76 +3848,76 @@
         <v>39</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="B15" s="37"/>
       <c r="C15" s="37"/>
       <c r="D15" s="37"/>
       <c r="E15" s="36" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="B16" s="37"/>
       <c r="C16" s="37"/>
       <c r="D16" s="37"/>
       <c r="E16" s="29"/>
       <c r="F16" s="25" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="G16" s="25" t="s">
         <v>47</v>
       </c>
       <c r="H16" s="25"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:8">
       <c r="B17" s="37"/>
       <c r="C17" s="37"/>
       <c r="D17" s="37"/>
       <c r="E17" s="36" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
       <c r="B18" s="29"/>
       <c r="C18" s="29"/>
       <c r="D18" s="29"/>
       <c r="E18" s="29"/>
       <c r="F18" s="25" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="G18" s="25" t="s">
         <v>47</v>
       </c>
       <c r="H18" s="25"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:8">
       <c r="B19" s="36">
         <v>7</v>
       </c>
@@ -3909,35 +3927,35 @@
       <c r="D19" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="25" t="s">
+      <c r="E19" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="F19" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="G19" s="25" t="s">
-        <v>76</v>
+      <c r="F19" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="G19" s="46" t="s">
+        <v>70</v>
       </c>
       <c r="H19" s="25"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:8">
       <c r="B20" s="29"/>
       <c r="C20" s="29"/>
       <c r="D20" s="29"/>
-      <c r="E20" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="F20" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="G20" s="25" t="s">
-        <v>76</v>
+      <c r="E20" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="F20" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="G20" s="46" t="s">
+        <v>70</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8">
       <c r="B21" s="36">
         <v>8</v>
       </c>
@@ -3947,59 +3965,59 @@
       <c r="D21" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="36" t="s">
+      <c r="E21" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="G21" s="25" t="s">
-        <v>76</v>
+      <c r="F21" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="G21" s="46" t="s">
+        <v>70</v>
       </c>
       <c r="H21" s="25"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:8">
       <c r="B22" s="37"/>
       <c r="C22" s="37"/>
       <c r="D22" s="37"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="G22" s="25" t="s">
+      <c r="E22" s="48"/>
+      <c r="F22" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="G22" s="46" t="s">
         <v>47</v>
       </c>
       <c r="H22" s="25"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:8">
       <c r="B23" s="37"/>
       <c r="C23" s="37"/>
       <c r="D23" s="37"/>
-      <c r="E23" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="F23" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="G23" s="25" t="s">
-        <v>76</v>
+      <c r="E23" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="F23" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="G23" s="46" t="s">
+        <v>70</v>
       </c>
       <c r="H23" s="25"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:8">
       <c r="B24" s="29"/>
       <c r="C24" s="29"/>
       <c r="D24" s="29"/>
       <c r="E24" s="29"/>
       <c r="F24" s="25" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="H24" s="25"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:8">
       <c r="B25" s="25">
         <v>9</v>
       </c>
@@ -4010,17 +4028,17 @@
         <v>25</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G25" s="25" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="H25" s="25"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:8">
       <c r="B26" s="37">
         <v>10</v>
       </c>
@@ -4034,29 +4052,29 @@
         <v>39</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="G26" s="25" t="s">
         <v>38</v>
       </c>
       <c r="H26" s="25"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:8">
       <c r="B27" s="29"/>
       <c r="C27" s="29"/>
       <c r="D27" s="29"/>
       <c r="E27" s="25" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G27" s="25" t="s">
         <v>38</v>
       </c>
       <c r="H27" s="25"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:8">
       <c r="B28" s="36">
         <v>11</v>
       </c>
@@ -4077,7 +4095,7 @@
       </c>
       <c r="H28" s="25"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:8">
       <c r="B29" s="37"/>
       <c r="C29" s="37"/>
       <c r="D29" s="37"/>
@@ -4085,27 +4103,27 @@
         <v>45</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G29" s="25" t="s">
         <v>38</v>
       </c>
       <c r="H29" s="25"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:8">
       <c r="B30" s="29"/>
       <c r="C30" s="29"/>
       <c r="D30" s="29"/>
       <c r="E30" s="29"/>
       <c r="F30" s="25" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G30" s="25" t="s">
         <v>38</v>
       </c>
       <c r="H30" s="25"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:8">
       <c r="B31" s="25">
         <v>12</v>
       </c>
@@ -4116,10 +4134,10 @@
         <v>28</v>
       </c>
       <c r="E31" s="25" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G31" s="25" t="s">
         <v>38</v>
@@ -4135,419 +4153,416 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F252D19-75A1-6E4D-BF56-113E33DFCED4}">
-  <dimension ref="A1:K44"/>
+  <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="5.5703125" defaultRowHeight="20"/>
   <cols>
-    <col min="2" max="2" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" style="40" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" style="40" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="25.5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" ht="27">
       <c r="A1" s="27" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="B3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G3" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11">
       <c r="B4" s="26" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D4" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="I4" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="J4" s="41" t="s">
         <v>126</v>
-      </c>
-      <c r="E4" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="F4" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="G4" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="H4" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="I4" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="J4" s="41" t="s">
-        <v>132</v>
       </c>
       <c r="K4" s="26" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11">
       <c r="B5" s="25">
         <v>1</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E5" s="25" t="s">
         <v>34</v>
       </c>
       <c r="F5" s="25"/>
-      <c r="G5" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="H5" s="25">
+      <c r="G5" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="H5" s="45">
         <v>8</v>
       </c>
       <c r="I5" s="25"/>
       <c r="J5" s="42"/>
       <c r="K5" s="25"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11">
       <c r="B6" s="25">
         <v>2</v>
       </c>
       <c r="C6" s="25"/>
       <c r="D6" s="25" t="s">
-        <v>114</v>
+        <v>175</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F6" s="25"/>
       <c r="G6" s="25" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="H6" s="25">
         <v>100</v>
       </c>
       <c r="I6" s="25" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="J6" s="42"/>
       <c r="K6" s="25"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11">
       <c r="B7" s="25">
         <v>3</v>
       </c>
       <c r="C7" s="25"/>
       <c r="D7" s="25" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="F7" s="25" t="s">
         <v>169</v>
       </c>
+      <c r="F7" s="25"/>
       <c r="G7" s="25" t="s">
-        <v>173</v>
+        <v>129</v>
       </c>
       <c r="H7" s="25">
-        <v>1</v>
-      </c>
-      <c r="I7" s="25" t="s">
-        <v>133</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="I7" s="25"/>
       <c r="J7" s="42"/>
-      <c r="K7" s="25" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="K7" s="25"/>
+    </row>
+    <row r="8" spans="1:11">
       <c r="B8" s="25">
         <v>4</v>
       </c>
       <c r="C8" s="25"/>
       <c r="D8" s="25" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="F8" s="25"/>
       <c r="G8" s="25" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="H8" s="25">
-        <v>19</v>
-      </c>
-      <c r="I8" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="J8" s="45" t="s">
-        <v>140</v>
-      </c>
-      <c r="K8" s="25" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+        <v>100</v>
+      </c>
+      <c r="I8" s="25"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="25"/>
+    </row>
+    <row r="9" spans="1:11">
       <c r="B9" s="25">
         <v>5</v>
       </c>
       <c r="C9" s="25"/>
       <c r="D9" s="25" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="F9" s="25"/>
+        <v>139</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>163</v>
+      </c>
       <c r="G9" s="25" t="s">
-        <v>136</v>
+        <v>167</v>
       </c>
       <c r="H9" s="25">
-        <v>19</v>
-      </c>
-      <c r="I9" s="25"/>
+        <v>1</v>
+      </c>
+      <c r="I9" s="25" t="s">
+        <v>127</v>
+      </c>
       <c r="J9" s="42"/>
       <c r="K9" s="25" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="B10" s="25">
         <v>6</v>
       </c>
       <c r="C10" s="25"/>
-      <c r="D10" s="44" t="s">
-        <v>157</v>
+      <c r="D10" s="25" t="s">
+        <v>149</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="F10" s="25"/>
       <c r="G10" s="25" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="H10" s="25">
+        <v>19</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="J10" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="K10" s="25" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="B11" s="25">
+        <v>7</v>
+      </c>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="H11" s="25">
+        <v>19</v>
+      </c>
+      <c r="I11" s="25"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="25" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="21">
+      <c r="B12" s="25">
+        <v>8</v>
+      </c>
+      <c r="C12" s="25"/>
+      <c r="D12" s="44" t="s">
+        <v>151</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H12" s="25">
         <v>1</v>
       </c>
-      <c r="I10" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="J10" s="43">
+      <c r="I12" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="J12" s="43">
         <v>0</v>
       </c>
-      <c r="K10" s="25"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B12" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B13" s="26" t="s">
+      <c r="K12" s="25"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="B14" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="B15" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="G15" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="H15" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="I15" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="J15" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="K15" s="26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="B16" s="25">
+        <v>1</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="25"/>
+      <c r="G16" s="45" t="s">
         <v>128</v>
       </c>
-      <c r="C13" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="D13" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="E13" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="F13" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="G13" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="H13" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="I13" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="J13" s="41" t="s">
-        <v>132</v>
-      </c>
-      <c r="K13" s="26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B14" s="25">
-        <v>1</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="E14" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="H14" s="25">
+      <c r="H16" s="45">
         <v>8</v>
-      </c>
-      <c r="I14" s="25"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="25"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B15" s="25">
-        <v>2</v>
-      </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25" t="s">
-        <v>143</v>
-      </c>
-      <c r="E15" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="H15" s="25">
-        <v>255</v>
-      </c>
-      <c r="I15" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="J15" s="42"/>
-      <c r="K15" s="25"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B16" s="25">
-        <v>3</v>
-      </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="E16" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="H16" s="25">
-        <v>50</v>
       </c>
       <c r="I16" s="25"/>
       <c r="J16" s="42"/>
       <c r="K16" s="25"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:11">
       <c r="B17" s="25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C17" s="25"/>
       <c r="D17" s="25" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="F17" s="25" t="s">
-        <v>168</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="F17" s="25"/>
       <c r="G17" s="25" t="s">
-        <v>173</v>
+        <v>129</v>
       </c>
       <c r="H17" s="25">
-        <v>1</v>
-      </c>
-      <c r="I17" s="25"/>
+        <v>255</v>
+      </c>
+      <c r="I17" s="25" t="s">
+        <v>127</v>
+      </c>
       <c r="J17" s="42"/>
-      <c r="K17" s="25" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="K17" s="25"/>
+    </row>
+    <row r="18" spans="2:11">
       <c r="B18" s="25">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C18" s="25"/>
       <c r="D18" s="25" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="F18" s="25"/>
       <c r="G18" s="25" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="H18" s="25">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="I18" s="25"/>
       <c r="J18" s="42"/>
-      <c r="K18" s="25" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="K18" s="25"/>
+    </row>
+    <row r="19" spans="2:11">
       <c r="B19" s="25">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C19" s="25"/>
       <c r="D19" s="25" t="s">
-        <v>171</v>
+        <v>109</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="F19" s="25"/>
+        <v>101</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>162</v>
+      </c>
       <c r="G19" s="25" t="s">
-        <v>136</v>
+        <v>167</v>
       </c>
       <c r="H19" s="25">
-        <v>19</v>
-      </c>
-      <c r="I19" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="J19" s="45" t="s">
-        <v>140</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I19" s="25"/>
+      <c r="J19" s="42"/>
       <c r="K19" s="25" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.4">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11">
       <c r="B20" s="25">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C20" s="25"/>
       <c r="D20" s="25" t="s">
-        <v>156</v>
+        <v>110</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="F20" s="25"/>
       <c r="G20" s="25" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="H20" s="25">
         <v>19</v>
@@ -4555,495 +4570,547 @@
       <c r="I20" s="25"/>
       <c r="J20" s="42"/>
       <c r="K20" s="25" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.4">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11">
       <c r="B21" s="25">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C21" s="25"/>
-      <c r="D21" s="44" t="s">
-        <v>157</v>
+      <c r="D21" s="25" t="s">
+        <v>165</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F21" s="25"/>
       <c r="G21" s="25" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="H21" s="25">
+        <v>19</v>
+      </c>
+      <c r="I21" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="J21" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="K21" s="25" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11">
+      <c r="B22" s="25">
+        <v>7</v>
+      </c>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="H22" s="25">
+        <v>19</v>
+      </c>
+      <c r="I22" s="25"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="25" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" ht="21">
+      <c r="B23" s="25">
+        <v>8</v>
+      </c>
+      <c r="C23" s="25"/>
+      <c r="D23" s="44" t="s">
+        <v>151</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H23" s="25">
         <v>1</v>
       </c>
-      <c r="I21" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="J21" s="43">
+      <c r="I23" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="J23" s="43">
         <v>0</v>
       </c>
-      <c r="K21" s="25"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B23" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B24" s="26" t="s">
+      <c r="K23" s="25"/>
+    </row>
+    <row r="25" spans="2:11">
+      <c r="B25" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11">
+      <c r="B26" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="E26" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="F26" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="G26" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="H26" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="I26" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="J26" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="K26" s="26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11">
+      <c r="B27" s="25">
+        <v>1</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="E27" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="C24" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="D24" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="E24" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="F24" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="G24" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="H24" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="I24" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="J24" s="41" t="s">
-        <v>132</v>
-      </c>
-      <c r="K24" s="26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B25" s="25">
-        <v>1</v>
-      </c>
-      <c r="C25" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="D25" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="E25" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="H25" s="25">
+      <c r="H27" s="25">
         <v>8</v>
       </c>
-      <c r="I25" s="25"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="25"/>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B26" s="25">
+      <c r="I27" s="25"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="25"/>
+    </row>
+    <row r="28" spans="2:11">
+      <c r="B28" s="25">
         <v>2</v>
-      </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="E26" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="H26" s="25">
-        <v>50</v>
-      </c>
-      <c r="I26" s="25"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="25"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B27" s="25">
-        <v>3</v>
-      </c>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="E27" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="F27" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="G27" s="25" t="s">
-        <v>173</v>
-      </c>
-      <c r="H27" s="25">
-        <v>1</v>
-      </c>
-      <c r="I27" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="J27" s="42">
-        <v>0</v>
-      </c>
-      <c r="K27" s="25" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B28" s="25">
-        <v>4</v>
       </c>
       <c r="C28" s="25"/>
       <c r="D28" s="25" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="E28" s="25" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="F28" s="25"/>
       <c r="G28" s="25" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="H28" s="25">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="I28" s="25"/>
       <c r="J28" s="42"/>
-      <c r="K28" s="25" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="K28" s="25"/>
+    </row>
+    <row r="29" spans="2:11">
       <c r="B29" s="25">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C29" s="25"/>
       <c r="D29" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="E29" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="F29" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="G29" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="H29" s="25">
+        <v>1</v>
+      </c>
+      <c r="I29" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="J29" s="42">
+        <v>0</v>
+      </c>
+      <c r="K29" s="25" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11">
+      <c r="B30" s="25">
+        <v>4</v>
+      </c>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="E30" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="H30" s="25">
+        <v>19</v>
+      </c>
+      <c r="I30" s="25"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="25" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11">
+      <c r="B31" s="25">
+        <v>5</v>
+      </c>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="E31" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="H31" s="25">
+        <v>19</v>
+      </c>
+      <c r="I31" s="25"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="25" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11">
+      <c r="B33" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11">
+      <c r="B34" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="C34" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="D34" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="E34" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="F34" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="G34" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="H34" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="I34" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="E29" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="H29" s="25">
-        <v>19</v>
-      </c>
-      <c r="I29" s="25"/>
-      <c r="J29" s="42"/>
-      <c r="K29" s="25" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B31" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B32" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="C32" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="D32" s="26" t="s">
+      <c r="J34" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="E32" s="26" t="s">
+      <c r="K34" s="26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11">
+      <c r="B35" s="25">
+        <v>1</v>
+      </c>
+      <c r="C35" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="F32" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="G32" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="H32" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="I32" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="J32" s="41" t="s">
-        <v>132</v>
-      </c>
-      <c r="K32" s="26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B33" s="25">
-        <v>1</v>
-      </c>
-      <c r="C33" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="D33" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="E33" s="25" t="s">
+      <c r="D35" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="E35" s="25" t="s">
         <v>34</v>
-      </c>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="H33" s="25">
-        <v>8</v>
-      </c>
-      <c r="I33" s="25"/>
-      <c r="J33" s="42"/>
-      <c r="K33" s="25"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B34" s="25">
-        <v>2</v>
-      </c>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="E34" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="H34" s="25">
-        <v>8</v>
-      </c>
-      <c r="I34" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="J34" s="42"/>
-      <c r="K34" s="25" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B35" s="25">
-        <v>3</v>
-      </c>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="E35" s="25" t="s">
-        <v>117</v>
       </c>
       <c r="F35" s="25"/>
       <c r="G35" s="25" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="H35" s="25">
         <v>8</v>
       </c>
-      <c r="I35" s="25" t="s">
-        <v>133</v>
-      </c>
+      <c r="I35" s="25"/>
       <c r="J35" s="42"/>
-      <c r="K35" s="25" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="K35" s="25"/>
+    </row>
+    <row r="36" spans="2:11">
       <c r="B36" s="25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C36" s="25"/>
       <c r="D36" s="25" t="s">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="E36" s="25" t="s">
-        <v>110</v>
+        <v>154</v>
       </c>
       <c r="F36" s="25"/>
       <c r="G36" s="25" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="H36" s="25">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="I36" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="J36" s="42" t="s">
-        <v>140</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="J36" s="42"/>
       <c r="K36" s="25" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.4">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11">
       <c r="B37" s="25">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C37" s="25"/>
       <c r="D37" s="25" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="E37" s="25" t="s">
         <v>111</v>
       </c>
       <c r="F37" s="25"/>
       <c r="G37" s="25" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="H37" s="25">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="I37" s="25" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="J37" s="42"/>
       <c r="K37" s="25" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.4">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11">
       <c r="B38" s="25">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C38" s="25"/>
       <c r="D38" s="25" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="E38" s="25" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="F38" s="25"/>
       <c r="G38" s="25" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="H38" s="25">
         <v>19</v>
       </c>
-      <c r="I38" s="25"/>
-      <c r="J38" s="42"/>
+      <c r="I38" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="J38" s="42" t="s">
+        <v>134</v>
+      </c>
       <c r="K38" s="25" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B40" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B41" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="C41" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="D41" s="26" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11">
+      <c r="B39" s="25">
+        <v>5</v>
+      </c>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="E39" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="H39" s="25">
+        <v>19</v>
+      </c>
+      <c r="I39" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="J39" s="42"/>
+      <c r="K39" s="25" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11">
+      <c r="B40" s="25">
+        <v>6</v>
+      </c>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="E40" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="H40" s="25">
+        <v>19</v>
+      </c>
+      <c r="I40" s="25"/>
+      <c r="J40" s="42"/>
+      <c r="K40" s="25" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11">
+      <c r="B42" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11">
+      <c r="B43" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="C43" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="D43" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="E43" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="F43" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="G43" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="H43" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="I43" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="J43" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="E41" s="26" t="s">
+      <c r="K43" s="26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11">
+      <c r="B44" s="25">
+        <v>1</v>
+      </c>
+      <c r="C44" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="F41" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="G41" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="H41" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="I41" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="J41" s="41" t="s">
-        <v>132</v>
-      </c>
-      <c r="K41" s="26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B42" s="25">
-        <v>1</v>
-      </c>
-      <c r="C42" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="D42" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="E42" s="25" t="s">
+      <c r="D44" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="E44" s="25" t="s">
         <v>34</v>
-      </c>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="H42" s="25">
-        <v>2</v>
-      </c>
-      <c r="I42" s="25"/>
-      <c r="J42" s="42"/>
-      <c r="K42" s="25"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B43" s="25">
-        <v>2</v>
-      </c>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="E43" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="H43" s="25">
-        <v>2</v>
-      </c>
-      <c r="I43" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="J43" s="42"/>
-      <c r="K43" s="25"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B44" s="25">
-        <v>3</v>
-      </c>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="E44" s="25" t="s">
-        <v>147</v>
       </c>
       <c r="F44" s="25"/>
       <c r="G44" s="25" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="H44" s="25">
-        <v>50</v>
-      </c>
-      <c r="I44" s="25" t="s">
-        <v>133</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I44" s="25"/>
       <c r="J44" s="42"/>
       <c r="K44" s="25"/>
+    </row>
+    <row r="45" spans="2:11">
+      <c r="B45" s="25">
+        <v>2</v>
+      </c>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="E45" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="F45" s="25"/>
+      <c r="G45" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="H45" s="25">
+        <v>2</v>
+      </c>
+      <c r="I45" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="J45" s="42"/>
+      <c r="K45" s="25"/>
+    </row>
+    <row r="46" spans="2:11">
+      <c r="B46" s="25">
+        <v>3</v>
+      </c>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="E46" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="H46" s="25">
+        <v>50</v>
+      </c>
+      <c r="I46" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="J46" s="42"/>
+      <c r="K46" s="25"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -5057,9 +5124,9 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.7109375" defaultRowHeight="20"/>
   <sheetData>
-    <row r="3" spans="3:44" x14ac:dyDescent="0.4">
+    <row r="3" spans="3:44">
       <c r="C3" s="32" t="s">
         <v>2</v>
       </c>
@@ -5107,7 +5174,7 @@
       <c r="AQ3" s="33"/>
       <c r="AR3" s="28"/>
     </row>
-    <row r="4" spans="3:44" x14ac:dyDescent="0.4">
+    <row r="4" spans="3:44">
       <c r="C4" s="35"/>
       <c r="D4" s="38"/>
       <c r="E4" s="38"/>
@@ -5151,12 +5218,12 @@
       <c r="AQ4" s="38"/>
       <c r="AR4" s="34"/>
     </row>
-    <row r="7" spans="3:44" x14ac:dyDescent="0.4">
+    <row r="7" spans="3:44">
       <c r="C7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="8" spans="3:44" x14ac:dyDescent="0.4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="3:44">
       <c r="C8" s="5"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -5200,63 +5267,63 @@
       <c r="AQ8" s="4"/>
       <c r="AR8" s="6"/>
     </row>
-    <row r="9" spans="3:44" x14ac:dyDescent="0.4">
+    <row r="9" spans="3:44">
       <c r="C9" s="2"/>
       <c r="AR9" s="1"/>
     </row>
-    <row r="10" spans="3:44" x14ac:dyDescent="0.4">
+    <row r="10" spans="3:44">
       <c r="C10" s="2"/>
       <c r="AR10" s="1"/>
     </row>
-    <row r="11" spans="3:44" x14ac:dyDescent="0.4">
+    <row r="11" spans="3:44">
       <c r="C11" s="2"/>
       <c r="AR11" s="1"/>
     </row>
-    <row r="12" spans="3:44" x14ac:dyDescent="0.4">
+    <row r="12" spans="3:44">
       <c r="C12" s="2"/>
       <c r="AR12" s="1"/>
     </row>
-    <row r="13" spans="3:44" x14ac:dyDescent="0.4">
+    <row r="13" spans="3:44">
       <c r="C13" s="2"/>
       <c r="AR13" s="1"/>
     </row>
-    <row r="14" spans="3:44" x14ac:dyDescent="0.4">
+    <row r="14" spans="3:44">
       <c r="C14" s="2"/>
       <c r="AR14" s="1"/>
     </row>
-    <row r="15" spans="3:44" x14ac:dyDescent="0.4">
+    <row r="15" spans="3:44">
       <c r="C15" s="2"/>
       <c r="AR15" s="1"/>
     </row>
-    <row r="16" spans="3:44" x14ac:dyDescent="0.4">
+    <row r="16" spans="3:44">
       <c r="C16" s="2"/>
       <c r="AR16" s="1"/>
     </row>
-    <row r="17" spans="3:44" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:44">
       <c r="C17" s="2"/>
       <c r="AR17" s="1"/>
     </row>
-    <row r="18" spans="3:44" x14ac:dyDescent="0.4">
+    <row r="18" spans="3:44">
       <c r="C18" s="2"/>
       <c r="AR18" s="1"/>
     </row>
-    <row r="19" spans="3:44" x14ac:dyDescent="0.4">
+    <row r="19" spans="3:44">
       <c r="C19" s="2"/>
       <c r="AR19" s="1"/>
     </row>
-    <row r="20" spans="3:44" x14ac:dyDescent="0.4">
+    <row r="20" spans="3:44">
       <c r="C20" s="2"/>
       <c r="AR20" s="1"/>
     </row>
-    <row r="21" spans="3:44" x14ac:dyDescent="0.4">
+    <row r="21" spans="3:44">
       <c r="C21" s="2"/>
       <c r="AR21" s="1"/>
     </row>
-    <row r="22" spans="3:44" x14ac:dyDescent="0.4">
+    <row r="22" spans="3:44">
       <c r="C22" s="2"/>
       <c r="AR22" s="1"/>
     </row>
-    <row r="23" spans="3:44" x14ac:dyDescent="0.4">
+    <row r="23" spans="3:44">
       <c r="C23" s="7"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -5300,18 +5367,18 @@
       <c r="AQ23" s="3"/>
       <c r="AR23" s="39"/>
     </row>
-    <row r="26" spans="3:44" x14ac:dyDescent="0.4">
+    <row r="26" spans="3:44">
       <c r="C26" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="27" spans="3:44" x14ac:dyDescent="0.4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="3:44">
       <c r="C27" s="32" t="s">
         <v>1</v>
       </c>
       <c r="D27" s="28"/>
       <c r="E27" s="32" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F27" s="33"/>
       <c r="G27" s="33"/>
@@ -5320,36 +5387,36 @@
       <c r="J27" s="33"/>
       <c r="K27" s="28"/>
       <c r="L27" s="32" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="M27" s="33"/>
       <c r="N27" s="33"/>
       <c r="O27" s="33"/>
       <c r="P27" s="28"/>
       <c r="Q27" s="32" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="R27" s="33"/>
       <c r="S27" s="28"/>
       <c r="T27" s="32" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="U27" s="33"/>
       <c r="V27" s="33"/>
       <c r="W27" s="28"/>
       <c r="X27" s="32" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="Y27" s="33"/>
       <c r="Z27" s="33"/>
       <c r="AA27" s="28"/>
       <c r="AB27" s="32" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="AC27" s="33"/>
       <c r="AD27" s="28"/>
       <c r="AE27" s="32" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="AF27" s="33"/>
       <c r="AG27" s="33"/>
@@ -5365,7 +5432,7 @@
       <c r="AQ27" s="33"/>
       <c r="AR27" s="28"/>
     </row>
-    <row r="28" spans="3:44" x14ac:dyDescent="0.4">
+    <row r="28" spans="3:44">
       <c r="C28" s="35">
         <v>1</v>
       </c>
@@ -5411,7 +5478,7 @@
       <c r="AQ28" s="38"/>
       <c r="AR28" s="34"/>
     </row>
-    <row r="29" spans="3:44" x14ac:dyDescent="0.4">
+    <row r="29" spans="3:44">
       <c r="C29" s="35">
         <v>2</v>
       </c>
@@ -5457,7 +5524,7 @@
       <c r="AQ29" s="38"/>
       <c r="AR29" s="34"/>
     </row>
-    <row r="30" spans="3:44" x14ac:dyDescent="0.4">
+    <row r="30" spans="3:44">
       <c r="C30" s="35">
         <v>3</v>
       </c>
@@ -5503,7 +5570,7 @@
       <c r="AQ30" s="38"/>
       <c r="AR30" s="34"/>
     </row>
-    <row r="31" spans="3:44" x14ac:dyDescent="0.4">
+    <row r="31" spans="3:44">
       <c r="C31" s="35">
         <v>4</v>
       </c>
@@ -5549,7 +5616,7 @@
       <c r="AQ31" s="38"/>
       <c r="AR31" s="34"/>
     </row>
-    <row r="32" spans="3:44" x14ac:dyDescent="0.4">
+    <row r="32" spans="3:44">
       <c r="C32" s="35">
         <v>5</v>
       </c>
@@ -5595,7 +5662,7 @@
       <c r="AQ32" s="38"/>
       <c r="AR32" s="34"/>
     </row>
-    <row r="33" spans="3:44" x14ac:dyDescent="0.4">
+    <row r="33" spans="3:44">
       <c r="C33" s="35">
         <v>6</v>
       </c>
@@ -5641,7 +5708,7 @@
       <c r="AQ33" s="38"/>
       <c r="AR33" s="34"/>
     </row>
-    <row r="34" spans="3:44" x14ac:dyDescent="0.4">
+    <row r="34" spans="3:44">
       <c r="C34" s="35">
         <v>7</v>
       </c>
@@ -5687,7 +5754,7 @@
       <c r="AQ34" s="38"/>
       <c r="AR34" s="34"/>
     </row>
-    <row r="35" spans="3:44" x14ac:dyDescent="0.4">
+    <row r="35" spans="3:44">
       <c r="C35" s="35">
         <v>8</v>
       </c>
@@ -5733,7 +5800,7 @@
       <c r="AQ35" s="38"/>
       <c r="AR35" s="34"/>
     </row>
-    <row r="36" spans="3:44" x14ac:dyDescent="0.4">
+    <row r="36" spans="3:44">
       <c r="C36" s="35">
         <v>9</v>
       </c>
@@ -5779,7 +5846,7 @@
       <c r="AQ36" s="38"/>
       <c r="AR36" s="34"/>
     </row>
-    <row r="37" spans="3:44" x14ac:dyDescent="0.4">
+    <row r="37" spans="3:44">
       <c r="C37" s="35">
         <v>10</v>
       </c>
@@ -5825,7 +5892,7 @@
       <c r="AQ37" s="38"/>
       <c r="AR37" s="34"/>
     </row>
-    <row r="38" spans="3:44" x14ac:dyDescent="0.4">
+    <row r="38" spans="3:44">
       <c r="C38" s="35">
         <v>11</v>
       </c>
@@ -5871,7 +5938,7 @@
       <c r="AQ38" s="38"/>
       <c r="AR38" s="34"/>
     </row>
-    <row r="39" spans="3:44" x14ac:dyDescent="0.4">
+    <row r="39" spans="3:44">
       <c r="C39" s="35">
         <v>12</v>
       </c>
@@ -5917,7 +5984,7 @@
       <c r="AQ39" s="38"/>
       <c r="AR39" s="34"/>
     </row>
-    <row r="40" spans="3:44" x14ac:dyDescent="0.4">
+    <row r="40" spans="3:44">
       <c r="C40" s="35">
         <v>13</v>
       </c>
@@ -5963,7 +6030,7 @@
       <c r="AQ40" s="38"/>
       <c r="AR40" s="34"/>
     </row>
-    <row r="41" spans="3:44" x14ac:dyDescent="0.4">
+    <row r="41" spans="3:44">
       <c r="C41" s="35">
         <v>14</v>
       </c>
@@ -6009,7 +6076,7 @@
       <c r="AQ41" s="38"/>
       <c r="AR41" s="34"/>
     </row>
-    <row r="42" spans="3:44" x14ac:dyDescent="0.4">
+    <row r="42" spans="3:44">
       <c r="C42" s="35">
         <v>15</v>
       </c>
@@ -6063,113 +6130,98 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B764366E-70A0-5E40-A1BA-8BA2526BB00C}">
-  <dimension ref="B2:D32"/>
+  <dimension ref="B2:D28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.6640625" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="5.7109375" defaultRowHeight="20"/>
   <sheetData>
-    <row r="2" spans="2:4" ht="25.5" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:4" ht="27">
       <c r="B2" s="27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="27">
+      <c r="B3" s="27"/>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="C4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="C5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="B3" s="27"/>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C4" t="s">
+    <row r="6" spans="2:4">
+      <c r="C6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:4">
       <c r="B13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
       <c r="C14" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:4">
       <c r="D15" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:4">
       <c r="C17" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="D18" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="D18" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="D19" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="D20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="D21" t="s">
+    <row r="22" spans="2:4">
+      <c r="C22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="D23" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B25" t="s">
+    <row r="24" spans="2:4">
+      <c r="D24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="C26" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="50"/>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="C27" s="50"/>
+      <c r="D27" s="50" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="D27" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="D28" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C30" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="D31" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="D32" t="s">
-        <v>65</v>
+    <row r="28" spans="2:4">
+      <c r="C28" s="50"/>
+      <c r="D28" s="50" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/doc/01.design/rental_app_基本設計書.xlsx
+++ b/doc/01.design/rental_app_基本設計書.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/Eclipse_2022-12.app/Contents/workspace/Rental-app/doc/01.design/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kouhei/Desktop/Rental-app/doc/01.design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0CC98B7-2A27-DD4A-81DD-DF4AE24386AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{164D49A5-F9FF-BD4C-AB54-B0DD2C557D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{2F0FFA90-C190-0E43-BE11-0EF90B74854A}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="180">
   <si>
     <t>権限があるスタッフのみ遷移可能</t>
     <rPh sb="0" eb="2">
@@ -1443,6 +1443,28 @@
   </si>
   <si>
     <t>book_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールアドレス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電話番号</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">デンワ </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">バンゴウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mail_address</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>telephone_number</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1805,7 +1827,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1942,15 +1964,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -3927,13 +3940,13 @@
       <c r="D19" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="46" t="s">
+      <c r="E19" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="F19" s="46" t="s">
+      <c r="F19" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="G19" s="46" t="s">
+      <c r="G19" s="25" t="s">
         <v>70</v>
       </c>
       <c r="H19" s="25"/>
@@ -3942,13 +3955,13 @@
       <c r="B20" s="29"/>
       <c r="C20" s="29"/>
       <c r="D20" s="29"/>
-      <c r="E20" s="46" t="s">
+      <c r="E20" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="F20" s="46" t="s">
+      <c r="F20" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="G20" s="46" t="s">
+      <c r="G20" s="25" t="s">
         <v>70</v>
       </c>
       <c r="H20" s="25" t="s">
@@ -3965,13 +3978,13 @@
       <c r="D21" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="47" t="s">
+      <c r="E21" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="46" t="s">
+      <c r="F21" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="G21" s="46" t="s">
+      <c r="G21" s="25" t="s">
         <v>70</v>
       </c>
       <c r="H21" s="25"/>
@@ -3980,11 +3993,11 @@
       <c r="B22" s="37"/>
       <c r="C22" s="37"/>
       <c r="D22" s="37"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="46" t="s">
+      <c r="E22" s="29"/>
+      <c r="F22" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="G22" s="46" t="s">
+      <c r="G22" s="25" t="s">
         <v>47</v>
       </c>
       <c r="H22" s="25"/>
@@ -3993,13 +4006,13 @@
       <c r="B23" s="37"/>
       <c r="C23" s="37"/>
       <c r="D23" s="37"/>
-      <c r="E23" s="47" t="s">
+      <c r="E23" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="F23" s="46" t="s">
+      <c r="F23" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="G23" s="46" t="s">
+      <c r="G23" s="25" t="s">
         <v>70</v>
       </c>
       <c r="H23" s="25"/>
@@ -4153,10 +4166,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F252D19-75A1-6E4D-BF56-113E33DFCED4}">
-  <dimension ref="A1:K46"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="5.5703125" defaultRowHeight="20"/>
@@ -4578,337 +4591,333 @@
         <v>6</v>
       </c>
       <c r="C21" s="25"/>
-      <c r="D21" s="25" t="s">
-        <v>165</v>
-      </c>
-      <c r="E21" s="25" t="s">
-        <v>143</v>
+      <c r="D21" s="45" t="s">
+        <v>178</v>
+      </c>
+      <c r="E21" s="45" t="s">
+        <v>176</v>
       </c>
       <c r="F21" s="25"/>
       <c r="G21" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H21" s="25">
-        <v>19</v>
-      </c>
-      <c r="I21" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="J21" s="42" t="s">
-        <v>134</v>
-      </c>
-      <c r="K21" s="25" t="s">
-        <v>156</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="I21" s="25"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="25"/>
     </row>
     <row r="22" spans="2:11">
       <c r="B22" s="25">
         <v>7</v>
       </c>
       <c r="C22" s="25"/>
-      <c r="D22" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="E22" s="25" t="s">
-        <v>138</v>
+      <c r="D22" s="45" t="s">
+        <v>179</v>
+      </c>
+      <c r="E22" s="45" t="s">
+        <v>177</v>
       </c>
       <c r="F22" s="25"/>
       <c r="G22" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H22" s="25">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="I22" s="25"/>
       <c r="J22" s="42"/>
-      <c r="K22" s="25" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" ht="21">
+      <c r="K22" s="25"/>
+    </row>
+    <row r="23" spans="2:11">
       <c r="B23" s="25">
         <v>8</v>
       </c>
       <c r="C23" s="25"/>
-      <c r="D23" s="44" t="s">
-        <v>151</v>
+      <c r="D23" s="25" t="s">
+        <v>165</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="F23" s="25"/>
       <c r="G23" s="25" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="H23" s="25">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="I23" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="J23" s="43">
+      <c r="J23" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="K23" s="25" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11">
+      <c r="B24" s="25">
+        <v>9</v>
+      </c>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="H24" s="25">
+        <v>19</v>
+      </c>
+      <c r="I24" s="25"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="25" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" ht="21">
+      <c r="B25" s="25">
+        <v>10</v>
+      </c>
+      <c r="C25" s="25"/>
+      <c r="D25" s="44" t="s">
+        <v>151</v>
+      </c>
+      <c r="E25" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H25" s="25">
+        <v>1</v>
+      </c>
+      <c r="I25" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="J25" s="43">
         <v>0</v>
       </c>
-      <c r="K23" s="25"/>
-    </row>
-    <row r="25" spans="2:11">
-      <c r="B25" t="s">
+      <c r="K25" s="25"/>
+    </row>
+    <row r="27" spans="2:11">
+      <c r="B27" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="26" spans="2:11">
-      <c r="B26" s="26" t="s">
+    <row r="28" spans="2:11">
+      <c r="B28" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="C26" s="26" t="s">
+      <c r="C28" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="D26" s="26" t="s">
+      <c r="D28" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="E26" s="26" t="s">
+      <c r="E28" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="F26" s="26" t="s">
+      <c r="F28" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="G26" s="26" t="s">
+      <c r="G28" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="H26" s="26" t="s">
+      <c r="H28" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="I26" s="26" t="s">
+      <c r="I28" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="J26" s="41" t="s">
+      <c r="J28" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="K26" s="26" t="s">
+      <c r="K28" s="26" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="2:11">
-      <c r="B27" s="25">
-        <v>1</v>
-      </c>
-      <c r="C27" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="D27" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="E27" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="H27" s="25">
-        <v>8</v>
-      </c>
-      <c r="I27" s="25"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="25"/>
-    </row>
-    <row r="28" spans="2:11">
-      <c r="B28" s="25">
-        <v>2</v>
-      </c>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="E28" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="H28" s="25">
-        <v>50</v>
-      </c>
-      <c r="I28" s="25"/>
-      <c r="J28" s="42"/>
-      <c r="K28" s="25"/>
     </row>
     <row r="29" spans="2:11">
       <c r="B29" s="25">
-        <v>3</v>
-      </c>
-      <c r="C29" s="25"/>
+        <v>1</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>127</v>
+      </c>
       <c r="D29" s="25" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E29" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="F29" s="25" t="s">
-        <v>164</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="F29" s="25"/>
       <c r="G29" s="25" t="s">
-        <v>167</v>
+        <v>128</v>
       </c>
       <c r="H29" s="25">
-        <v>1</v>
-      </c>
-      <c r="I29" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="J29" s="42">
-        <v>0</v>
-      </c>
-      <c r="K29" s="25" t="s">
-        <v>142</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I29" s="25"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="25"/>
     </row>
     <row r="30" spans="2:11">
       <c r="B30" s="25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C30" s="25"/>
       <c r="D30" s="25" t="s">
-        <v>150</v>
+        <v>108</v>
       </c>
       <c r="E30" s="25" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="F30" s="25"/>
       <c r="G30" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H30" s="25">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="I30" s="25"/>
       <c r="J30" s="42"/>
-      <c r="K30" s="25" t="s">
-        <v>156</v>
-      </c>
+      <c r="K30" s="25"/>
     </row>
     <row r="31" spans="2:11">
       <c r="B31" s="25">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C31" s="25"/>
       <c r="D31" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="E31" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="F31" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="G31" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="H31" s="25">
+        <v>1</v>
+      </c>
+      <c r="I31" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="J31" s="42">
+        <v>0</v>
+      </c>
+      <c r="K31" s="25" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11">
+      <c r="B32" s="25">
+        <v>4</v>
+      </c>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="E32" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="H32" s="25">
+        <v>19</v>
+      </c>
+      <c r="I32" s="25"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="25" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11">
+      <c r="B33" s="25">
+        <v>5</v>
+      </c>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="E31" s="25" t="s">
+      <c r="E33" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25" t="s">
+      <c r="F33" s="25"/>
+      <c r="G33" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="H31" s="25">
+      <c r="H33" s="25">
         <v>19</v>
       </c>
-      <c r="I31" s="25"/>
-      <c r="J31" s="42"/>
-      <c r="K31" s="25" t="s">
+      <c r="I33" s="25"/>
+      <c r="J33" s="42"/>
+      <c r="K33" s="25" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="33" spans="2:11">
-      <c r="B33" t="s">
+    <row r="35" spans="2:11">
+      <c r="B35" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="34" spans="2:11">
-      <c r="B34" s="26" t="s">
+    <row r="36" spans="2:11">
+      <c r="B36" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="C34" s="26" t="s">
+      <c r="C36" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="D34" s="26" t="s">
+      <c r="D36" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="E34" s="26" t="s">
+      <c r="E36" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="F34" s="26" t="s">
+      <c r="F36" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="G34" s="26" t="s">
+      <c r="G36" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="H34" s="26" t="s">
+      <c r="H36" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="I34" s="26" t="s">
+      <c r="I36" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="J34" s="41" t="s">
+      <c r="J36" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="K34" s="26" t="s">
+      <c r="K36" s="26" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="2:11">
-      <c r="B35" s="25">
-        <v>1</v>
-      </c>
-      <c r="C35" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="D35" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="E35" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="H35" s="25">
-        <v>8</v>
-      </c>
-      <c r="I35" s="25"/>
-      <c r="J35" s="42"/>
-      <c r="K35" s="25"/>
-    </row>
-    <row r="36" spans="2:11">
-      <c r="B36" s="25">
-        <v>2</v>
-      </c>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25" t="s">
-        <v>153</v>
-      </c>
-      <c r="E36" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="H36" s="25">
-        <v>8</v>
-      </c>
-      <c r="I36" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="J36" s="42"/>
-      <c r="K36" s="25" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="37" spans="2:11">
       <c r="B37" s="25">
-        <v>3</v>
-      </c>
-      <c r="C37" s="25"/>
+        <v>1</v>
+      </c>
+      <c r="C37" s="25" t="s">
+        <v>127</v>
+      </c>
       <c r="D37" s="25" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E37" s="25" t="s">
-        <v>111</v>
+        <v>34</v>
       </c>
       <c r="F37" s="25"/>
       <c r="G37" s="25" t="s">
@@ -4917,78 +4926,72 @@
       <c r="H37" s="25">
         <v>8</v>
       </c>
-      <c r="I37" s="25" t="s">
-        <v>127</v>
-      </c>
+      <c r="I37" s="25"/>
       <c r="J37" s="42"/>
-      <c r="K37" s="25" t="s">
-        <v>147</v>
-      </c>
+      <c r="K37" s="25"/>
     </row>
     <row r="38" spans="2:11">
       <c r="B38" s="25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C38" s="25"/>
       <c r="D38" s="25" t="s">
-        <v>113</v>
+        <v>153</v>
       </c>
       <c r="E38" s="25" t="s">
-        <v>104</v>
+        <v>154</v>
       </c>
       <c r="F38" s="25"/>
       <c r="G38" s="25" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H38" s="25">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="I38" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="J38" s="42" t="s">
-        <v>134</v>
-      </c>
+      <c r="J38" s="42"/>
       <c r="K38" s="25" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
     <row r="39" spans="2:11">
       <c r="B39" s="25">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C39" s="25"/>
       <c r="D39" s="25" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E39" s="25" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F39" s="25"/>
       <c r="G39" s="25" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H39" s="25">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="I39" s="25" t="s">
         <v>127</v>
       </c>
       <c r="J39" s="42"/>
       <c r="K39" s="25" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="40" spans="2:11">
       <c r="B40" s="25">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C40" s="25"/>
       <c r="D40" s="25" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E40" s="25" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F40" s="25"/>
       <c r="G40" s="25" t="s">
@@ -4997,120 +5000,174 @@
       <c r="H40" s="25">
         <v>19</v>
       </c>
-      <c r="I40" s="25"/>
-      <c r="J40" s="42"/>
+      <c r="I40" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="J40" s="42" t="s">
+        <v>134</v>
+      </c>
       <c r="K40" s="25" t="s">
         <v>156</v>
       </c>
     </row>
+    <row r="41" spans="2:11">
+      <c r="B41" s="25">
+        <v>5</v>
+      </c>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="E41" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="H41" s="25">
+        <v>19</v>
+      </c>
+      <c r="I41" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="J41" s="42"/>
+      <c r="K41" s="25" t="s">
+        <v>156</v>
+      </c>
+    </row>
     <row r="42" spans="2:11">
-      <c r="B42" t="s">
+      <c r="B42" s="25">
+        <v>6</v>
+      </c>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="E42" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="H42" s="25">
+        <v>19</v>
+      </c>
+      <c r="I42" s="25"/>
+      <c r="J42" s="42"/>
+      <c r="K42" s="25" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11">
+      <c r="B44" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="43" spans="2:11">
-      <c r="B43" s="26" t="s">
+    <row r="45" spans="2:11">
+      <c r="B45" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="C43" s="26" t="s">
+      <c r="C45" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="D43" s="26" t="s">
+      <c r="D45" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="E43" s="26" t="s">
+      <c r="E45" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="F43" s="26" t="s">
+      <c r="F45" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="G43" s="26" t="s">
+      <c r="G45" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="H43" s="26" t="s">
+      <c r="H45" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="I43" s="26" t="s">
+      <c r="I45" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="J43" s="41" t="s">
+      <c r="J45" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="K43" s="26" t="s">
+      <c r="K45" s="26" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:11">
-      <c r="B44" s="25">
-        <v>1</v>
-      </c>
-      <c r="C44" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="D44" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="E44" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="F44" s="25"/>
-      <c r="G44" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="H44" s="25">
-        <v>2</v>
-      </c>
-      <c r="I44" s="25"/>
-      <c r="J44" s="42"/>
-      <c r="K44" s="25"/>
-    </row>
-    <row r="45" spans="2:11">
-      <c r="B45" s="25">
-        <v>2</v>
-      </c>
-      <c r="C45" s="25"/>
-      <c r="D45" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="E45" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="F45" s="25"/>
-      <c r="G45" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="H45" s="25">
-        <v>2</v>
-      </c>
-      <c r="I45" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="J45" s="42"/>
-      <c r="K45" s="25"/>
     </row>
     <row r="46" spans="2:11">
       <c r="B46" s="25">
-        <v>3</v>
-      </c>
-      <c r="C46" s="25"/>
+        <v>1</v>
+      </c>
+      <c r="C46" s="25" t="s">
+        <v>127</v>
+      </c>
       <c r="D46" s="25" t="s">
-        <v>161</v>
+        <v>107</v>
       </c>
       <c r="E46" s="25" t="s">
-        <v>141</v>
+        <v>34</v>
       </c>
       <c r="F46" s="25"/>
       <c r="G46" s="25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H46" s="25">
-        <v>50</v>
-      </c>
-      <c r="I46" s="25" t="s">
-        <v>127</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I46" s="25"/>
       <c r="J46" s="42"/>
       <c r="K46" s="25"/>
+    </row>
+    <row r="47" spans="2:11">
+      <c r="B47" s="25">
+        <v>2</v>
+      </c>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="E47" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="H47" s="25">
+        <v>2</v>
+      </c>
+      <c r="I47" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="J47" s="42"/>
+      <c r="K47" s="25"/>
+    </row>
+    <row r="48" spans="2:11">
+      <c r="B48" s="25">
+        <v>3</v>
+      </c>
+      <c r="C48" s="25"/>
+      <c r="D48" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="E48" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="H48" s="25">
+        <v>50</v>
+      </c>
+      <c r="I48" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="J48" s="42"/>
+      <c r="K48" s="25"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -6207,20 +6264,20 @@
       </c>
     </row>
     <row r="26" spans="2:4">
-      <c r="C26" s="49" t="s">
+      <c r="C26" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="D26" s="50"/>
+      <c r="D26" s="47"/>
     </row>
     <row r="27" spans="2:4">
-      <c r="C27" s="50"/>
-      <c r="D27" s="50" t="s">
+      <c r="C27" s="47"/>
+      <c r="D27" s="47" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="28" spans="2:4">
-      <c r="C28" s="50"/>
-      <c r="D28" s="50" t="s">
+      <c r="C28" s="47"/>
+      <c r="D28" s="47" t="s">
         <v>60</v>
       </c>
     </row>
